--- a/Ornek3.xlsx
+++ b/Ornek3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CASPER NIRVANAA500\YandexDisk\DERSLER\2237_standartpuan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONSTER\OneDrive - hacettepe.edu.tr\Sunular\2237_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -376,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,107 +389,107 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -499,22 +499,22 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -524,97 +524,97 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
